--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Lgi2-Adam22.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Lgi2-Adam22.xlsx
@@ -76,25 +76,25 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Lgi2</t>
+  </si>
+  <si>
+    <t>Adam22</t>
+  </si>
+  <si>
+    <t>Inflammatory-Mac</t>
+  </si>
+  <si>
     <t>Neutrophils</t>
-  </si>
-  <si>
-    <t>Lgi2</t>
-  </si>
-  <si>
-    <t>Adam22</t>
-  </si>
-  <si>
-    <t>ECs</t>
-  </si>
-  <si>
-    <t>Inflammatory-Mac</t>
   </si>
   <si>
     <t>Resolving-Mac</t>
@@ -534,25 +534,25 @@
         <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>7.194537333333334</v>
+        <v>0.3777555</v>
       </c>
       <c r="H2">
-        <v>21.583612</v>
+        <v>0.755511</v>
       </c>
       <c r="I2">
-        <v>0.9450222006930215</v>
+        <v>0.04674878051708328</v>
       </c>
       <c r="J2">
-        <v>0.9617036862109067</v>
+        <v>0.03234814298672928</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.124414</v>
+        <v>5.447678</v>
       </c>
       <c r="N2">
-        <v>2.248828</v>
+        <v>10.895356</v>
       </c>
       <c r="O2">
-        <v>0.1096545122942886</v>
+        <v>0.4286498436662743</v>
       </c>
       <c r="P2">
-        <v>0.08772804550878611</v>
+        <v>0.4047900009176674</v>
       </c>
       <c r="Q2">
-        <v>8.089638501122668</v>
+        <v>2.057890326729</v>
       </c>
       <c r="R2">
-        <v>48.53783100673601</v>
+        <v>8.231561306915999</v>
       </c>
       <c r="S2">
-        <v>0.1036259485242686</v>
+        <v>0.02003885746023672</v>
       </c>
       <c r="T2">
-        <v>0.08436838474987779</v>
+        <v>0.01309420482928298</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,25 +596,25 @@
         <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>7.194537333333334</v>
+        <v>0.3777555</v>
       </c>
       <c r="H3">
-        <v>21.583612</v>
+        <v>0.755511</v>
       </c>
       <c r="I3">
-        <v>0.9450222006930215</v>
+        <v>0.04674878051708328</v>
       </c>
       <c r="J3">
-        <v>0.9617036862109067</v>
+        <v>0.03234814298672928</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,28 +623,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.7327576666666666</v>
+        <v>0.7327576666666668</v>
       </c>
       <c r="N3">
         <v>2.198273</v>
       </c>
       <c r="O3">
-        <v>0.07145960879910267</v>
+        <v>0.05765694287766837</v>
       </c>
       <c r="P3">
-        <v>0.0857558665156854</v>
+        <v>0.08167139556406268</v>
       </c>
       <c r="Q3">
-        <v>5.271852389119556</v>
+        <v>0.2768032387505001</v>
       </c>
       <c r="R3">
-        <v>47.446671502076</v>
+        <v>1.660819432503</v>
       </c>
       <c r="S3">
-        <v>0.0675309167679904</v>
+        <v>0.002695391767874127</v>
       </c>
       <c r="T3">
-        <v>0.08247173294234511</v>
+        <v>0.002641917981632028</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,25 +658,25 @@
         <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>7.194537333333334</v>
+        <v>0.3777555</v>
       </c>
       <c r="H4">
-        <v>21.583612</v>
+        <v>0.755511</v>
       </c>
       <c r="I4">
-        <v>0.9450222006930215</v>
+        <v>0.04674878051708328</v>
       </c>
       <c r="J4">
-        <v>0.9617036862109067</v>
+        <v>0.03234814298672928</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.9572023333333334</v>
+        <v>0.302684</v>
       </c>
       <c r="N4">
-        <v>2.871607</v>
+        <v>0.9080520000000001</v>
       </c>
       <c r="O4">
-        <v>0.09334778384885081</v>
+        <v>0.02381665165971311</v>
       </c>
       <c r="P4">
-        <v>0.1120230046848175</v>
+        <v>0.03373642586009028</v>
       </c>
       <c r="Q4">
-        <v>6.886627922720445</v>
+        <v>0.114340545762</v>
       </c>
       <c r="R4">
-        <v>61.97965130448401</v>
+        <v>0.6860432745720001</v>
       </c>
       <c r="S4">
-        <v>0.08821572812265747</v>
+        <v>0.001113399421091755</v>
       </c>
       <c r="T4">
-        <v>0.1077329365458106</v>
+        <v>0.001091310727583392</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,25 +720,25 @@
         <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>7.194537333333334</v>
+        <v>0.3777555</v>
       </c>
       <c r="H5">
-        <v>21.583612</v>
+        <v>0.755511</v>
       </c>
       <c r="I5">
-        <v>0.9450222006930215</v>
+        <v>0.04674878051708328</v>
       </c>
       <c r="J5">
-        <v>0.9617036862109067</v>
+        <v>0.03234814298672928</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>4.003958</v>
+        <v>5.763022</v>
       </c>
       <c r="N5">
-        <v>8.007916</v>
+        <v>11.526044</v>
       </c>
       <c r="O5">
-        <v>0.3904718917914711</v>
+        <v>0.4534626457997884</v>
       </c>
       <c r="P5">
-        <v>0.3123933085494028</v>
+        <v>0.4282216534583244</v>
       </c>
       <c r="Q5">
-        <v>28.80662531209867</v>
+        <v>2.177013257121</v>
       </c>
       <c r="R5">
-        <v>172.839751872592</v>
+        <v>8.708053028484001</v>
       </c>
       <c r="S5">
-        <v>0.3690046064895434</v>
+        <v>0.02119882570119019</v>
       </c>
       <c r="T5">
-        <v>0.3004297963795818</v>
+        <v>0.01385217527608351</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,25 +782,25 @@
         <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>7.194537333333334</v>
+        <v>0.3777555</v>
       </c>
       <c r="H6">
-        <v>21.583612</v>
+        <v>0.755511</v>
       </c>
       <c r="I6">
-        <v>0.9450222006930215</v>
+        <v>0.04674878051708328</v>
       </c>
       <c r="J6">
-        <v>0.9617036862109067</v>
+        <v>0.03234814298672928</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.387532666666667</v>
+        <v>0.2632226666666667</v>
       </c>
       <c r="N6">
-        <v>7.162597999999999</v>
+        <v>0.789668</v>
       </c>
       <c r="O6">
-        <v>0.2328357083334213</v>
+        <v>0.02071164171525676</v>
       </c>
       <c r="P6">
-        <v>0.2794169777791544</v>
+        <v>0.02933816118029118</v>
       </c>
       <c r="Q6">
-        <v>17.17719290488622</v>
+        <v>0.09943381005800001</v>
       </c>
       <c r="R6">
-        <v>154.594736143976</v>
+        <v>0.596602860348</v>
       </c>
       <c r="S6">
-        <v>0.2200349134891683</v>
+        <v>0.0009682439926950046</v>
       </c>
       <c r="T6">
-        <v>0.2687163375201238</v>
+        <v>0.0009490350328277696</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,22 +847,22 @@
         <v>27</v>
       </c>
       <c r="E7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>7.194537333333334</v>
+        <v>0.3777555</v>
       </c>
       <c r="H7">
-        <v>21.583612</v>
+        <v>0.755511</v>
       </c>
       <c r="I7">
-        <v>0.9450222006930215</v>
+        <v>0.04674878051708328</v>
       </c>
       <c r="J7">
-        <v>0.9617036862109067</v>
+        <v>0.03234814298672928</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.048287</v>
+        <v>0.199559</v>
       </c>
       <c r="N7">
-        <v>3.144861</v>
+        <v>0.598677</v>
       </c>
       <c r="O7">
-        <v>0.1022304949328654</v>
+        <v>0.01570227428129894</v>
       </c>
       <c r="P7">
-        <v>0.1226827969621539</v>
+        <v>0.02224236301956415</v>
       </c>
       <c r="Q7">
-        <v>7.541939957548</v>
+        <v>0.07538450982450001</v>
       </c>
       <c r="R7">
-        <v>67.877459617932</v>
+        <v>0.452307058947</v>
       </c>
       <c r="S7">
-        <v>0.09661008729939324</v>
+        <v>0.0007340621739954858</v>
       </c>
       <c r="T7">
-        <v>0.1179844980731676</v>
+        <v>0.0007194991393196008</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,25 +906,25 @@
         <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.3961645</v>
+        <v>7.194537333333333</v>
       </c>
       <c r="H8">
-        <v>0.7923290000000001</v>
+        <v>21.583612</v>
       </c>
       <c r="I8">
-        <v>0.05203729305731365</v>
+        <v>0.8903532753804024</v>
       </c>
       <c r="J8">
-        <v>0.03530390186738909</v>
+        <v>0.9241291882528327</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.124414</v>
+        <v>5.447678</v>
       </c>
       <c r="N8">
-        <v>2.248828</v>
+        <v>10.895356</v>
       </c>
       <c r="O8">
-        <v>0.1096545122942886</v>
+        <v>0.4286498436662743</v>
       </c>
       <c r="P8">
-        <v>0.08772804550878611</v>
+        <v>0.4047900009176674</v>
       </c>
       <c r="Q8">
-        <v>0.445452910103</v>
+        <v>39.19352275097867</v>
       </c>
       <c r="R8">
-        <v>1.781811640412</v>
+        <v>235.161136505872</v>
       </c>
       <c r="S8">
-        <v>0.005706123991314698</v>
+        <v>0.3816497922995648</v>
       </c>
       <c r="T8">
-        <v>0.003097142309660029</v>
+        <v>0.3740782549609074</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,25 +968,25 @@
         <v>24</v>
       </c>
       <c r="D9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.3961645</v>
+        <v>7.194537333333333</v>
       </c>
       <c r="H9">
-        <v>0.7923290000000001</v>
+        <v>21.583612</v>
       </c>
       <c r="I9">
-        <v>0.05203729305731365</v>
+        <v>0.8903532753804024</v>
       </c>
       <c r="J9">
-        <v>0.03530390186738909</v>
+        <v>0.9241291882528327</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -995,28 +995,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.7327576666666666</v>
+        <v>0.7327576666666668</v>
       </c>
       <c r="N9">
         <v>2.198273</v>
       </c>
       <c r="O9">
-        <v>0.07145960879910267</v>
+        <v>0.05765694287766837</v>
       </c>
       <c r="P9">
-        <v>0.0857558665156854</v>
+        <v>0.08167139556406268</v>
       </c>
       <c r="Q9">
-        <v>0.2902925746361667</v>
+        <v>5.271852389119556</v>
       </c>
       <c r="R9">
-        <v>1.741755447817</v>
+        <v>47.44667150207601</v>
       </c>
       <c r="S9">
-        <v>0.003718564604839894</v>
+        <v>0.0513350479395528</v>
       </c>
       <c r="T9">
-        <v>0.003027516696022675</v>
+        <v>0.07547492048609325</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,25 +1030,25 @@
         <v>24</v>
       </c>
       <c r="D10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.3961645</v>
+        <v>7.194537333333333</v>
       </c>
       <c r="H10">
-        <v>0.7923290000000001</v>
+        <v>21.583612</v>
       </c>
       <c r="I10">
-        <v>0.05203729305731365</v>
+        <v>0.8903532753804024</v>
       </c>
       <c r="J10">
-        <v>0.03530390186738909</v>
+        <v>0.9241291882528327</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.9572023333333334</v>
+        <v>0.302684</v>
       </c>
       <c r="N10">
-        <v>2.871607</v>
+        <v>0.9080520000000001</v>
       </c>
       <c r="O10">
-        <v>0.09334778384885081</v>
+        <v>0.02381665165971311</v>
       </c>
       <c r="P10">
-        <v>0.1120230046848175</v>
+        <v>0.03373642586009028</v>
       </c>
       <c r="Q10">
-        <v>0.3792095837838334</v>
+        <v>2.177671338202666</v>
       </c>
       <c r="R10">
-        <v>2.275257502703</v>
+        <v>19.599042043824</v>
       </c>
       <c r="S10">
-        <v>0.00485756598439342</v>
+        <v>0.02120523381381966</v>
       </c>
       <c r="T10">
-        <v>0.003954849164282865</v>
+        <v>0.0311768158446371</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,25 +1092,25 @@
         <v>24</v>
       </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.3961645</v>
+        <v>7.194537333333333</v>
       </c>
       <c r="H11">
-        <v>0.7923290000000001</v>
+        <v>21.583612</v>
       </c>
       <c r="I11">
-        <v>0.05203729305731365</v>
+        <v>0.8903532753804024</v>
       </c>
       <c r="J11">
-        <v>0.03530390186738909</v>
+        <v>0.9241291882528327</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>4.003958</v>
+        <v>5.763022</v>
       </c>
       <c r="N11">
-        <v>8.007916</v>
+        <v>11.526044</v>
       </c>
       <c r="O11">
-        <v>0.3904718917914711</v>
+        <v>0.4534626457997884</v>
       </c>
       <c r="P11">
-        <v>0.3123933085494028</v>
+        <v>0.4282216534583244</v>
       </c>
       <c r="Q11">
-        <v>1.586226019091</v>
+        <v>41.46227693182134</v>
       </c>
       <c r="R11">
-        <v>6.344904076364</v>
+        <v>248.773661590928</v>
       </c>
       <c r="S11">
-        <v>0.02031910026379645</v>
+        <v>0.4037419519505049</v>
       </c>
       <c r="T11">
-        <v>0.01102870270905712</v>
+        <v>0.3957321290027272</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,25 +1154,25 @@
         <v>24</v>
       </c>
       <c r="D12" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.3961645</v>
+        <v>7.194537333333333</v>
       </c>
       <c r="H12">
-        <v>0.7923290000000001</v>
+        <v>21.583612</v>
       </c>
       <c r="I12">
-        <v>0.05203729305731365</v>
+        <v>0.8903532753804024</v>
       </c>
       <c r="J12">
-        <v>0.03530390186738909</v>
+        <v>0.9241291882528327</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>2.387532666666667</v>
+        <v>0.2632226666666667</v>
       </c>
       <c r="N12">
-        <v>7.162597999999999</v>
+        <v>0.789668</v>
       </c>
       <c r="O12">
-        <v>0.2328357083334213</v>
+        <v>0.02071164171525676</v>
       </c>
       <c r="P12">
-        <v>0.2794169777791544</v>
+        <v>0.02933816118029118</v>
       </c>
       <c r="Q12">
-        <v>0.9458556851236667</v>
+        <v>1.893765302312889</v>
       </c>
       <c r="R12">
-        <v>5.675134110741999</v>
+        <v>17.043887720816</v>
       </c>
       <c r="S12">
-        <v>0.01211613998875345</v>
+        <v>0.01844067803968423</v>
       </c>
       <c r="T12">
-        <v>0.009864509563597705</v>
+        <v>0.02711225107637326</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,22 +1219,22 @@
         <v>27</v>
       </c>
       <c r="E13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.3961645</v>
+        <v>7.194537333333333</v>
       </c>
       <c r="H13">
-        <v>0.7923290000000001</v>
+        <v>21.583612</v>
       </c>
       <c r="I13">
-        <v>0.05203729305731365</v>
+        <v>0.8903532753804024</v>
       </c>
       <c r="J13">
-        <v>0.03530390186738909</v>
+        <v>0.9241291882528327</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>1.048287</v>
+        <v>0.199559</v>
       </c>
       <c r="N13">
-        <v>3.144861</v>
+        <v>0.598677</v>
       </c>
       <c r="O13">
-        <v>0.1022304949328654</v>
+        <v>0.01570227428129894</v>
       </c>
       <c r="P13">
-        <v>0.1226827969621539</v>
+        <v>0.02224236301956415</v>
       </c>
       <c r="Q13">
-        <v>0.4152940952115</v>
+        <v>1.435734675702667</v>
       </c>
       <c r="R13">
-        <v>2.491764571269</v>
+        <v>12.921612081324</v>
       </c>
       <c r="S13">
-        <v>0.005319798224215734</v>
+        <v>0.01398057133727597</v>
       </c>
       <c r="T13">
-        <v>0.0043311814247687</v>
+        <v>0.02055481688209464</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,25 +1278,25 @@
         <v>24</v>
       </c>
       <c r="D14" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>0.02238633333333333</v>
+        <v>0.5082495</v>
       </c>
       <c r="H14">
-        <v>0.067159</v>
+        <v>1.016499</v>
       </c>
       <c r="I14">
-        <v>0.002940506249664913</v>
+        <v>0.06289794410251424</v>
       </c>
       <c r="J14">
-        <v>0.002992411921704221</v>
+        <v>0.04352266876043807</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>1.124414</v>
+        <v>5.447678</v>
       </c>
       <c r="N14">
-        <v>2.248828</v>
+        <v>10.895356</v>
       </c>
       <c r="O14">
-        <v>0.1096545122942886</v>
+        <v>0.4286498436662743</v>
       </c>
       <c r="P14">
-        <v>0.08772804550878611</v>
+        <v>0.4047900009176674</v>
       </c>
       <c r="Q14">
-        <v>0.02517150660866667</v>
+        <v>2.768779619661</v>
       </c>
       <c r="R14">
-        <v>0.151029039652</v>
+        <v>11.075118478644</v>
       </c>
       <c r="S14">
-        <v>0.0003224397787053137</v>
+        <v>0.02696119390647279</v>
       </c>
       <c r="T14">
-        <v>0.000262518449248302</v>
+        <v>0.01761754112747706</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,25 +1340,25 @@
         <v>24</v>
       </c>
       <c r="D15" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>0.02238633333333333</v>
+        <v>0.5082495</v>
       </c>
       <c r="H15">
-        <v>0.067159</v>
+        <v>1.016499</v>
       </c>
       <c r="I15">
-        <v>0.002940506249664913</v>
+        <v>0.06289794410251424</v>
       </c>
       <c r="J15">
-        <v>0.002992411921704221</v>
+        <v>0.04352266876043807</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,28 +1367,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0.7327576666666666</v>
+        <v>0.7327576666666668</v>
       </c>
       <c r="N15">
         <v>2.198273</v>
       </c>
       <c r="O15">
-        <v>0.07145960879910267</v>
+        <v>0.05765694287766837</v>
       </c>
       <c r="P15">
-        <v>0.0857558665156854</v>
+        <v>0.08167139556406268</v>
       </c>
       <c r="Q15">
-        <v>0.01640375737855555</v>
+        <v>0.3724237177045001</v>
       </c>
       <c r="R15">
-        <v>0.147633816407</v>
+        <v>2.234542306227</v>
       </c>
       <c r="S15">
-        <v>0.0002101274262723712</v>
+        <v>0.003626503170241442</v>
       </c>
       <c r="T15">
-        <v>0.0002566168773176127</v>
+        <v>0.003554557096337411</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,25 +1402,25 @@
         <v>24</v>
       </c>
       <c r="D16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G16">
-        <v>0.02238633333333333</v>
+        <v>0.5082495</v>
       </c>
       <c r="H16">
-        <v>0.067159</v>
+        <v>1.016499</v>
       </c>
       <c r="I16">
-        <v>0.002940506249664913</v>
+        <v>0.06289794410251424</v>
       </c>
       <c r="J16">
-        <v>0.002992411921704221</v>
+        <v>0.04352266876043807</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.9572023333333334</v>
+        <v>0.302684</v>
       </c>
       <c r="N16">
-        <v>2.871607</v>
+        <v>0.9080520000000001</v>
       </c>
       <c r="O16">
-        <v>0.09334778384885081</v>
+        <v>0.02381665165971311</v>
       </c>
       <c r="P16">
-        <v>0.1120230046848175</v>
+        <v>0.03373642586009028</v>
       </c>
       <c r="Q16">
-        <v>0.02142825050144444</v>
+        <v>0.153838991658</v>
       </c>
       <c r="R16">
-        <v>0.192854254513</v>
+        <v>0.9230339499480001</v>
       </c>
       <c r="S16">
-        <v>0.0002744897417999153</v>
+        <v>0.001498018424801688</v>
       </c>
       <c r="T16">
-        <v>0.0003352189747239756</v>
+        <v>0.001468299287869786</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,25 +1464,25 @@
         <v>24</v>
       </c>
       <c r="D17" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F17">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G17">
-        <v>0.02238633333333333</v>
+        <v>0.5082495</v>
       </c>
       <c r="H17">
-        <v>0.067159</v>
+        <v>1.016499</v>
       </c>
       <c r="I17">
-        <v>0.002940506249664913</v>
+        <v>0.06289794410251424</v>
       </c>
       <c r="J17">
-        <v>0.002992411921704221</v>
+        <v>0.04352266876043807</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>4.003958</v>
+        <v>5.763022</v>
       </c>
       <c r="N17">
-        <v>8.007916</v>
+        <v>11.526044</v>
       </c>
       <c r="O17">
-        <v>0.3904718917914711</v>
+        <v>0.4534626457997884</v>
       </c>
       <c r="P17">
-        <v>0.3123933085494028</v>
+        <v>0.4282216534583244</v>
       </c>
       <c r="Q17">
-        <v>0.08963393844066665</v>
+        <v>2.929053049989</v>
       </c>
       <c r="R17">
-        <v>0.5378036306439999</v>
+        <v>11.716212199956</v>
       </c>
       <c r="S17">
-        <v>0.001148185038131303</v>
+        <v>0.02852186814809331</v>
       </c>
       <c r="T17">
-        <v>0.0009348094607638579</v>
+        <v>0.01863734917951376</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1526,25 +1526,25 @@
         <v>24</v>
       </c>
       <c r="D18" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F18">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G18">
-        <v>0.02238633333333333</v>
+        <v>0.5082495</v>
       </c>
       <c r="H18">
-        <v>0.067159</v>
+        <v>1.016499</v>
       </c>
       <c r="I18">
-        <v>0.002940506249664913</v>
+        <v>0.06289794410251424</v>
       </c>
       <c r="J18">
-        <v>0.002992411921704221</v>
+        <v>0.04352266876043807</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>2.387532666666667</v>
+        <v>0.2632226666666667</v>
       </c>
       <c r="N18">
-        <v>7.162597999999999</v>
+        <v>0.789668</v>
       </c>
       <c r="O18">
-        <v>0.2328357083334213</v>
+        <v>0.02071164171525676</v>
       </c>
       <c r="P18">
-        <v>0.2794169777791544</v>
+        <v>0.02933816118029118</v>
       </c>
       <c r="Q18">
-        <v>0.05344810212022221</v>
+        <v>0.133782788722</v>
       </c>
       <c r="R18">
-        <v>0.4810329190819999</v>
+        <v>0.8026967323320001</v>
       </c>
       <c r="S18">
-        <v>0.0006846548554995823</v>
+        <v>0.001302719682877522</v>
       </c>
       <c r="T18">
-        <v>0.000836130695432905</v>
+        <v>0.001276875071090156</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,22 +1591,22 @@
         <v>27</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F19">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G19">
-        <v>0.02238633333333333</v>
+        <v>0.5082495</v>
       </c>
       <c r="H19">
-        <v>0.067159</v>
+        <v>1.016499</v>
       </c>
       <c r="I19">
-        <v>0.002940506249664913</v>
+        <v>0.06289794410251424</v>
       </c>
       <c r="J19">
-        <v>0.002992411921704221</v>
+        <v>0.04352266876043807</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>1.048287</v>
+        <v>0.199559</v>
       </c>
       <c r="N19">
-        <v>3.144861</v>
+        <v>0.598677</v>
       </c>
       <c r="O19">
-        <v>0.1022304949328654</v>
+        <v>0.01570227428129894</v>
       </c>
       <c r="P19">
-        <v>0.1226827969621539</v>
+        <v>0.02224236301956415</v>
       </c>
       <c r="Q19">
-        <v>0.023467302211</v>
+        <v>0.1014257619705</v>
       </c>
       <c r="R19">
-        <v>0.211205719899</v>
+        <v>0.608554571823</v>
       </c>
       <c r="S19">
-        <v>0.0003006094092564279</v>
+        <v>0.0009876407700274879</v>
       </c>
       <c r="T19">
-        <v>0.0003671174642175676</v>
+        <v>0.0009680469981499077</v>
       </c>
     </row>
   </sheetData>
